--- a/data/strategies/申万场内策略结果.xlsx
+++ b/data/strategies/申万场内策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="173">
+  <si>
+    <t>鹏华中证细分化工产业主题ETF</t>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
   <si>
     <t>国泰中证军工ETF</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业主题ETF</t>
-  </si>
-  <si>
     <t>顺周期中的Alpha与Beta</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>11.35%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>-0.30%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>15.20%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>18.09%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>27.10%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>-3.01%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>4.23%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>-2.24%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>17.14%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>17.68%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.63%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -134,67 +131,67 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159870.OF</t>
+  </si>
+  <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
     <t>512660.OF</t>
   </si>
   <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
-    <t>159870.OF</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
+    <t>6.83%</t>
+  </si>
+  <si>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,301 +206,301 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
     <t>600887.SH</t>
   </si>
   <si>
     <t>000568.SZ</t>
   </si>
   <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
     <t>600309.SH</t>
   </si>
   <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
     <t>002304.SZ</t>
   </si>
   <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
     <t>600893.SH</t>
   </si>
   <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
     <t>002179.SZ</t>
   </si>
   <si>
+    <t>002311.SZ</t>
+  </si>
+  <si>
+    <t>300498.SZ</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
+    <t>300699.SZ</t>
+  </si>
+  <si>
+    <t>000799.SZ</t>
+  </si>
+  <si>
     <t>000768.SZ</t>
   </si>
   <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>600346.SH</t>
-  </si>
-  <si>
-    <t>002311.SZ</t>
-  </si>
-  <si>
     <t>600760.SH</t>
   </si>
   <si>
-    <t>300498.SZ</t>
-  </si>
-  <si>
-    <t>002493.SZ</t>
-  </si>
-  <si>
     <t>002709.SZ</t>
   </si>
   <si>
-    <t>5.50%</t>
-  </si>
-  <si>
-    <t>5.24%</t>
-  </si>
-  <si>
-    <t>4.53%</t>
-  </si>
-  <si>
-    <t>3.81%</t>
-  </si>
-  <si>
-    <t>3.62%</t>
-  </si>
-  <si>
-    <t>3.28%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2.48%</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>1.65%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>1.18%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
+    <t>508.70%</t>
+  </si>
+  <si>
+    <t>483.95%</t>
+  </si>
+  <si>
+    <t>468.50%</t>
+  </si>
+  <si>
+    <t>361.40%</t>
+  </si>
+  <si>
+    <t>340.80%</t>
+  </si>
+  <si>
+    <t>334.70%</t>
+  </si>
+  <si>
+    <t>326.60%</t>
+  </si>
+  <si>
+    <t>321.45%</t>
+  </si>
+  <si>
+    <t>261.20%</t>
+  </si>
+  <si>
+    <t>234.75%</t>
+  </si>
+  <si>
+    <t>186.85%</t>
+  </si>
+  <si>
+    <t>143.20%</t>
+  </si>
+  <si>
+    <t>141.75%</t>
+  </si>
+  <si>
+    <t>134.10%</t>
+  </si>
+  <si>
+    <t>123.80%</t>
+  </si>
+  <si>
+    <t>122.28%</t>
+  </si>
+  <si>
+    <t>121.60%</t>
+  </si>
+  <si>
+    <t>119.88%</t>
+  </si>
+  <si>
+    <t>116.85%</t>
+  </si>
+  <si>
+    <t>114.67%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
   </si>
   <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>五粮液</t>
-  </si>
-  <si>
     <t>伊利股份</t>
   </si>
   <si>
     <t>泸州老窖</t>
   </si>
   <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>万华化学</t>
   </si>
   <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
     <t>洋河股份</t>
   </si>
   <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
     <t>航发动力</t>
   </si>
   <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
     <t>中航光电</t>
   </si>
   <si>
+    <t>海大集团</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>光威复材</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
     <t>中航西飞</t>
   </si>
   <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>恒力石化</t>
-  </si>
-  <si>
-    <t>海大集团</t>
-  </si>
-  <si>
     <t>中航沈飞</t>
   </si>
   <si>
-    <t>温氏股份</t>
-  </si>
-  <si>
-    <t>荣盛石化</t>
-  </si>
-  <si>
     <t>天赐材料</t>
   </si>
   <si>
+    <t>酒类</t>
+  </si>
+  <si>
     <t>茅台酒</t>
   </si>
   <si>
-    <t>酒类</t>
-  </si>
-  <si>
     <t>液体乳</t>
   </si>
   <si>
     <t>中高档酒类</t>
   </si>
   <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
     <t>聚氨酯系列</t>
   </si>
   <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>白酒</t>
+    <t>膜类产品</t>
   </si>
   <si>
     <t>航空发动机制造及衍生产品</t>
   </si>
   <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
     <t>电连接器</t>
   </si>
   <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>猪肉类养殖</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>碳纤维及织物</t>
+  </si>
+  <si>
+    <t>酒鬼系列</t>
+  </si>
+  <si>
     <t>航空产品</t>
   </si>
   <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>化工品</t>
-  </si>
-  <si>
-    <t>饲料</t>
-  </si>
-  <si>
-    <t>猪肉类养殖</t>
-  </si>
-  <si>
-    <t>化工产品</t>
-  </si>
-  <si>
     <t>锂离子电池材料产品</t>
   </si>
   <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>13.38%</t>
+  </si>
+  <si>
+    <t>-22.30%</t>
   </si>
   <si>
     <t>0.25%</t>
   </si>
   <si>
-    <t>-6.35%</t>
-  </si>
-  <si>
-    <t>20.76%</t>
-  </si>
-  <si>
-    <t>13.62%</t>
-  </si>
-  <si>
-    <t>-18.05%</t>
-  </si>
-  <si>
-    <t>-3.54%</t>
-  </si>
-  <si>
-    <t>76.18%</t>
+    <t>-12.69%</t>
+  </si>
+  <si>
+    <t>53.73%</t>
+  </si>
+  <si>
+    <t>-28.18%</t>
+  </si>
+  <si>
+    <t>26.17%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -515,28 +512,31 @@
     <t>食品饮料</t>
   </si>
   <si>
-    <t>军工</t>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>饲料养殖</t>
   </si>
   <si>
     <t>化工</t>
   </si>
   <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>56.04%</t>
-  </si>
-  <si>
-    <t>15.33%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
+    <t>28.73%</t>
+  </si>
+  <si>
+    <t>6.91%</t>
+  </si>
+  <si>
+    <t>6.11%</t>
+  </si>
+  <si>
+    <t>4.44%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,13 +957,13 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.066006857855362</v>
+        <v>1.02686009883611</v>
       </c>
       <c r="C3">
         <v>1.039420956763494</v>
       </c>
       <c r="D3">
-        <v>1.02686009883611</v>
+        <v>1.066006857855362</v>
       </c>
       <c r="E3">
         <v>1.042927217554615</v>
@@ -980,13 +980,13 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.075358478802993</v>
+        <v>1.061330056224159</v>
       </c>
       <c r="C4">
         <v>1.092186751030582</v>
       </c>
       <c r="D4">
-        <v>1.061330056224159</v>
+        <v>1.075358478802993</v>
       </c>
       <c r="E4">
         <v>1.080265509272079</v>
@@ -1003,13 +1003,13 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.09180174563591</v>
+        <v>1.068998328826082</v>
       </c>
       <c r="C5">
         <v>1.100853225961078</v>
       </c>
       <c r="D5">
-        <v>1.068998328826082</v>
+        <v>1.09180174563591</v>
       </c>
       <c r="E5">
         <v>1.090626631596037</v>
@@ -1026,13 +1026,13 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.118609725685786</v>
+        <v>1.104638764970133</v>
       </c>
       <c r="C6">
         <v>1.115156744319816</v>
       </c>
       <c r="D6">
-        <v>1.104638764970133</v>
+        <v>1.118609725685786</v>
       </c>
       <c r="E6">
         <v>1.113390494823888</v>
@@ -1049,13 +1049,13 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.088606608478803</v>
+        <v>1.101586266493641</v>
       </c>
       <c r="C7">
         <v>1.084306394401304</v>
       </c>
       <c r="D7">
-        <v>1.101586266493641</v>
+        <v>1.088606608478803</v>
       </c>
       <c r="E7">
         <v>1.089701415943763</v>
@@ -1072,13 +1072,13 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.052602867830424</v>
+        <v>1.089209983403007</v>
       </c>
       <c r="C8">
         <v>1.04889272361231</v>
       </c>
       <c r="D8">
-        <v>1.089209983403007</v>
+        <v>1.052602867830424</v>
       </c>
       <c r="E8">
         <v>1.059899574614513</v>
@@ -1095,13 +1095,13 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.094996882793018</v>
+        <v>1.110335048647452</v>
       </c>
       <c r="C9">
         <v>1.072265362860704</v>
       </c>
       <c r="D9">
-        <v>1.110335048647452</v>
+        <v>1.094996882793018</v>
       </c>
       <c r="E9">
         <v>1.087465664290469</v>
@@ -1118,13 +1118,13 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.079021197007481</v>
+        <v>1.110259492098048</v>
       </c>
       <c r="C10">
         <v>1.060147636851692</v>
       </c>
       <c r="D10">
-        <v>1.110259492098048</v>
+        <v>1.079021197007481</v>
       </c>
       <c r="E10">
         <v>1.077393990702229</v>
@@ -1141,13 +1141,13 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.017534289276808</v>
+        <v>1.087347257669719</v>
       </c>
       <c r="C11">
         <v>1.033074489502445</v>
       </c>
       <c r="D11">
-        <v>1.087347257669719</v>
+        <v>1.017534289276808</v>
       </c>
       <c r="E11">
         <v>1.042757631487854</v>
@@ -1164,13 +1164,13 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.009741271820449</v>
+        <v>1.091761509106276</v>
       </c>
       <c r="C12">
         <v>1.012616240053686</v>
       </c>
       <c r="D12">
-        <v>1.091761509106276</v>
+        <v>1.009741271820449</v>
       </c>
       <c r="E12">
         <v>1.031683815258524</v>
@@ -1187,16 +1187,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.031873441396509</v>
+        <v>1.137076676849913</v>
       </c>
       <c r="C13">
         <v>1.010622183874988</v>
       </c>
       <c r="D13">
-        <v>1.137076676849913</v>
+        <v>1.031873441396509</v>
       </c>
       <c r="E13">
-        <v>1.0475486214991</v>
+        <v>1.047548621499099</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1210,13 +1210,13 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.009273690773067</v>
+        <v>1.121004392227605</v>
       </c>
       <c r="C14">
         <v>0.9903556705972582</v>
       </c>
       <c r="D14">
-        <v>1.121004392227605</v>
+        <v>1.009273690773067</v>
       </c>
       <c r="E14">
         <v>1.027747356048797</v>
@@ -1233,13 +1233,13 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.02930174563591</v>
+        <v>1.139172989380303</v>
       </c>
       <c r="C15">
         <v>0.9969322212635414</v>
       </c>
       <c r="D15">
-        <v>1.139172989380303</v>
+        <v>1.02930174563591</v>
       </c>
       <c r="E15">
         <v>1.040584794385824</v>
@@ -1256,13 +1256,13 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.039043017456359</v>
+        <v>1.171715167447518</v>
       </c>
       <c r="C16">
         <v>1.018962707314735</v>
       </c>
       <c r="D16">
-        <v>1.171715167447518</v>
+        <v>1.039043017456359</v>
       </c>
       <c r="E16">
         <v>1.062170899883337</v>
@@ -1279,13 +1279,13 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.041536783042394</v>
+        <v>1.189923116005769</v>
       </c>
       <c r="C17">
         <v>1.017850637522769</v>
       </c>
       <c r="D17">
-        <v>1.189923116005769</v>
+        <v>1.041536783042394</v>
       </c>
       <c r="E17">
         <v>1.066790293523425</v>
@@ -1302,13 +1302,13 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.042939526184539</v>
+        <v>1.200397044346235</v>
       </c>
       <c r="C18">
         <v>1.056293739814016</v>
       </c>
       <c r="D18">
-        <v>1.200397044346235</v>
+        <v>1.042939526184539</v>
       </c>
       <c r="E18">
         <v>1.088981012539701</v>
@@ -1325,13 +1325,13 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>0.9736596009975064</v>
+        <v>1.176236507453332</v>
       </c>
       <c r="C19">
         <v>1.047569744032212</v>
       </c>
       <c r="D19">
-        <v>1.176236507453332</v>
+        <v>0.9736596009975064</v>
       </c>
       <c r="E19">
         <v>1.061258899128815</v>
@@ -1348,13 +1348,13 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>0.971243765586035</v>
+        <v>1.179505797241663</v>
       </c>
       <c r="C20">
         <v>1.038577317610967</v>
       </c>
       <c r="D20">
-        <v>1.179505797241663</v>
+        <v>0.971243765586035</v>
       </c>
       <c r="E20">
         <v>1.056976049512408</v>
@@ -1371,13 +1371,13 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>0.9569046134663343</v>
+        <v>1.129671695457043</v>
       </c>
       <c r="C21">
         <v>1.019384526890998</v>
       </c>
       <c r="D21">
-        <v>1.129671695457043</v>
+        <v>0.9569046134663343</v>
       </c>
       <c r="E21">
         <v>1.031336340676343</v>
@@ -1394,13 +1394,13 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>0.9264339152119702</v>
+        <v>1.126820881609365</v>
       </c>
       <c r="C22">
         <v>1.017716422203049</v>
       </c>
       <c r="D22">
-        <v>1.126820881609365</v>
+        <v>0.9264339152119702</v>
       </c>
       <c r="E22">
         <v>1.022171910306858</v>
@@ -1417,13 +1417,13 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>0.9218360349127184</v>
+        <v>1.181885967353556</v>
       </c>
       <c r="C23">
         <v>1.020975937110536</v>
       </c>
       <c r="D23">
-        <v>1.181885967353556</v>
+        <v>0.9218360349127184</v>
       </c>
       <c r="E23">
         <v>1.036418469121837</v>
@@ -1440,13 +1440,13 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>0.9368765586034913</v>
+        <v>1.211941835244988</v>
       </c>
       <c r="C24">
         <v>1.052324801073723</v>
       </c>
       <c r="D24">
-        <v>1.211941835244988</v>
+        <v>0.9368765586034913</v>
       </c>
       <c r="E24">
         <v>1.063366998998981</v>
@@ -1463,13 +1463,13 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>0.9064058603491273</v>
+        <v>1.205280296984896</v>
       </c>
       <c r="C25">
         <v>1.058441184929537</v>
       </c>
       <c r="D25">
-        <v>1.205280296984896</v>
+        <v>0.9064058603491273</v>
       </c>
       <c r="E25">
         <v>1.057142131798274</v>
@@ -1486,13 +1486,13 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>0.8935473815461348</v>
+        <v>1.21061140609628</v>
       </c>
       <c r="C26">
         <v>1.061355574729173</v>
       </c>
       <c r="D26">
-        <v>1.21061140609628</v>
+        <v>0.8935473815461348</v>
       </c>
       <c r="E26">
         <v>1.05671748427519</v>
@@ -1509,13 +1509,13 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.8753117206982545</v>
+        <v>1.151182085222883</v>
       </c>
       <c r="C27">
         <v>1.071134119451635</v>
       </c>
       <c r="D27">
-        <v>1.151182085222883</v>
+        <v>0.8753117206982545</v>
       </c>
       <c r="E27">
         <v>1.042190511206102</v>
@@ -1532,13 +1532,13 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>0.8789744389027432</v>
+        <v>1.210158552619677</v>
       </c>
       <c r="C28">
         <v>1.092436008052919</v>
       </c>
       <c r="D28">
-        <v>1.210158552619677</v>
+        <v>0.8789744389027432</v>
       </c>
       <c r="E28">
         <v>1.068501251907065</v>
@@ -1555,13 +1555,13 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>0.9283821695760599</v>
+        <v>1.265070188703061</v>
       </c>
       <c r="C29">
         <v>1.118895599654875</v>
       </c>
       <c r="D29">
-        <v>1.265070188703061</v>
+        <v>0.9283821695760599</v>
       </c>
       <c r="E29">
         <v>1.107810889397218</v>
@@ -1578,13 +1578,13 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>0.9240960099750624</v>
+        <v>1.293885689187007</v>
       </c>
       <c r="C30">
         <v>1.157530438117151</v>
       </c>
       <c r="D30">
-        <v>1.293885689187007</v>
+        <v>0.9240960099750624</v>
       </c>
       <c r="E30">
         <v>1.133260643849093</v>
@@ -1601,13 +1601,13 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>0.9183291770573566</v>
+        <v>1.3124880540376</v>
       </c>
       <c r="C31">
         <v>1.122423545201802</v>
       </c>
       <c r="D31">
-        <v>1.3124880540376</v>
+        <v>0.9183291770573566</v>
       </c>
       <c r="E31">
         <v>1.11891608037464</v>
@@ -1624,13 +1624,13 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>0.921524314214464</v>
+        <v>1.281372034758234</v>
       </c>
       <c r="C32">
         <v>1.140101620170645</v>
       </c>
       <c r="D32">
-        <v>1.281372034758234</v>
+        <v>0.921524314214464</v>
       </c>
       <c r="E32">
         <v>1.120774897328497</v>
@@ -1647,13 +1647,13 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>0.8913653366583542</v>
+        <v>1.276114446379858</v>
       </c>
       <c r="C33">
         <v>1.086760617390471</v>
       </c>
       <c r="D33">
-        <v>1.276114446379858</v>
+        <v>0.8913653366583542</v>
       </c>
       <c r="E33">
         <v>1.085250254454789</v>
@@ -1670,13 +1670,13 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>0.9158354114713217</v>
+        <v>1.245324018918102</v>
       </c>
       <c r="C34">
         <v>1.075927523727351</v>
       </c>
       <c r="D34">
-        <v>1.245324018918102</v>
+        <v>0.9158354114713217</v>
       </c>
       <c r="E34">
         <v>1.078253619461031</v>
@@ -1693,13 +1693,13 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.9159912718204489</v>
+        <v>1.194330751039041</v>
       </c>
       <c r="C35">
         <v>1.036755823986195</v>
       </c>
       <c r="D35">
-        <v>1.194330751039041</v>
+        <v>0.9159912718204489</v>
       </c>
       <c r="E35">
         <v>1.04595841770797</v>
@@ -1716,13 +1716,13 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>0.9336814214463841</v>
+        <v>1.194601190739756</v>
       </c>
       <c r="C36">
         <v>1.026095292877001</v>
       </c>
       <c r="D36">
-        <v>1.194601190739756</v>
+        <v>0.9336814214463841</v>
       </c>
       <c r="E36">
         <v>1.045118299485036</v>
@@ -1739,13 +1739,13 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.9023534912718205</v>
+        <v>1.159340827636171</v>
       </c>
       <c r="C37">
         <v>0.9980251174384047</v>
       </c>
       <c r="D37">
-        <v>1.159340827636171</v>
+        <v>0.9023534912718205</v>
       </c>
       <c r="E37">
         <v>1.0144361384462</v>
@@ -1762,13 +1762,13 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9193422693266834</v>
+        <v>1.190366715771483</v>
       </c>
       <c r="C38">
         <v>1.009395072380405</v>
       </c>
       <c r="D38">
-        <v>1.190366715771483</v>
+        <v>0.9193422693266834</v>
       </c>
       <c r="E38">
         <v>1.032124782464744</v>
@@ -1785,13 +1785,13 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9259663341645885</v>
+        <v>1.162769466326001</v>
       </c>
       <c r="C39">
         <v>0.9887067395264117</v>
       </c>
       <c r="D39">
-        <v>1.162769466326001</v>
+        <v>0.9259663341645885</v>
       </c>
       <c r="E39">
         <v>1.016537319885853</v>
@@ -1808,13 +1808,13 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9240960099750624</v>
+        <v>1.170250328148155</v>
       </c>
       <c r="C40">
         <v>1.001974882561595</v>
       </c>
       <c r="D40">
-        <v>1.170250328148155</v>
+        <v>0.9240960099750624</v>
       </c>
       <c r="E40">
         <v>1.024574025811602</v>
@@ -1831,16 +1831,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9117051122194514</v>
+        <v>1.115512939440801</v>
       </c>
       <c r="C41">
         <v>0.9587958968459401</v>
       </c>
       <c r="D41">
-        <v>1.115512939440801</v>
+        <v>0.9117051122194514</v>
       </c>
       <c r="E41">
-        <v>0.9862024613380331</v>
+        <v>0.9862024613380332</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1854,13 +1854,13 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.892534289276808</v>
+        <v>1.109189416105186</v>
       </c>
       <c r="C42">
         <v>0.9585849870578086</v>
       </c>
       <c r="D42">
-        <v>1.109189416105186</v>
+        <v>0.892534289276808</v>
       </c>
       <c r="E42">
         <v>0.9797234198744029</v>
@@ -1877,13 +1877,13 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.8323721945137158</v>
+        <v>1.07910777662893</v>
       </c>
       <c r="C43">
         <v>0.908407631099607</v>
       </c>
       <c r="D43">
-        <v>1.07910777662893</v>
+        <v>0.8323721945137158</v>
       </c>
       <c r="E43">
         <v>0.9320738083354648</v>
@@ -1900,13 +1900,13 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.7886533665835412</v>
+        <v>1.035259831015209</v>
       </c>
       <c r="C44">
         <v>0.8819863867318569</v>
       </c>
       <c r="D44">
-        <v>1.035259831015209</v>
+        <v>0.7886533665835412</v>
       </c>
       <c r="E44">
         <v>0.8969714927656162</v>
@@ -1923,13 +1923,13 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.7831203241895262</v>
+        <v>1.047741675812803</v>
       </c>
       <c r="C45">
         <v>0.8959256063656409</v>
       </c>
       <c r="D45">
-        <v>1.047741675812803</v>
+        <v>0.7831203241895262</v>
       </c>
       <c r="E45">
         <v>0.9056783031834028</v>
@@ -1946,13 +1946,13 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.7966801745635911</v>
+        <v>1.075413440765215</v>
       </c>
       <c r="C46">
         <v>0.9207554405138531</v>
       </c>
       <c r="D46">
-        <v>1.075413440765215</v>
+        <v>0.7966801745635911</v>
       </c>
       <c r="E46">
         <v>0.9284011240891281</v>
@@ -1969,13 +1969,13 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.7906795511221946</v>
+        <v>1.09597699083295</v>
       </c>
       <c r="C47">
         <v>0.919892627744224</v>
       </c>
       <c r="D47">
-        <v>1.09597699083295</v>
+        <v>0.7906795511221946</v>
       </c>
       <c r="E47">
         <v>0.9316104493608982</v>
@@ -1992,13 +1992,13 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.7855361596009975</v>
+        <v>1.065170022362981</v>
       </c>
       <c r="C48">
         <v>0.885859457386636</v>
       </c>
       <c r="D48">
-        <v>1.065170022362981</v>
+        <v>0.7855361596009975</v>
       </c>
       <c r="E48">
         <v>0.9056062741843125</v>
@@ -2015,16 +2015,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.7842113466334165</v>
+        <v>1.076751110942694</v>
       </c>
       <c r="C49">
         <v>0.9008340523439747</v>
       </c>
       <c r="D49">
-        <v>1.076751110942694</v>
+        <v>0.7842113466334165</v>
       </c>
       <c r="E49">
-        <v>0.9156576405660148</v>
+        <v>0.915657640566015</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2038,13 +2038,13 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.7973815461346635</v>
+        <v>1.089631327994035</v>
       </c>
       <c r="C50">
         <v>0.9171316268814111</v>
       </c>
       <c r="D50">
-        <v>1.089631327994035</v>
+        <v>0.7973815461346635</v>
       </c>
       <c r="E50">
         <v>0.9303190319728801</v>
@@ -2061,13 +2061,13 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.8066552369077307</v>
+        <v>1.112576575035959</v>
       </c>
       <c r="C51">
         <v>0.9340044099319337</v>
       </c>
       <c r="D51">
-        <v>1.112576575035959</v>
+        <v>0.8066552369077307</v>
       </c>
       <c r="E51">
         <v>0.9468101579518893</v>
@@ -2084,13 +2084,13 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.8120324189526186</v>
+        <v>1.070850574731789</v>
       </c>
       <c r="C52">
         <v>0.9085034991851213</v>
       </c>
       <c r="D52">
-        <v>1.070850574731789</v>
+        <v>0.8120324189526186</v>
       </c>
       <c r="E52">
         <v>0.9249724980136627</v>
@@ -2107,13 +2107,13 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.8185006234413966</v>
+        <v>1.060214128093845</v>
       </c>
       <c r="C53">
         <v>0.9120506183491517</v>
       </c>
       <c r="D53">
-        <v>1.060214128093845</v>
+        <v>0.8185006234413966</v>
       </c>
       <c r="E53">
         <v>0.9257039970583862</v>
@@ -2130,13 +2130,13 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.8129675810473815</v>
+        <v>1.020175449433074</v>
       </c>
       <c r="C54">
         <v>0.9101716038730707</v>
       </c>
       <c r="D54">
-        <v>1.020175449433074</v>
+        <v>0.8129675810473815</v>
       </c>
       <c r="E54">
         <v>0.9133715595566492</v>
@@ -2153,13 +2153,13 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.7979270573566085</v>
+        <v>0.9741431653641376</v>
       </c>
       <c r="C55">
         <v>0.9046879493816509</v>
       </c>
       <c r="D55">
-        <v>0.9741431653641376</v>
+        <v>0.7979270573566085</v>
       </c>
       <c r="E55">
         <v>0.895361530371012</v>
@@ -2176,16 +2176,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.8013559850374066</v>
+        <v>0.9976130746791589</v>
       </c>
       <c r="C56">
         <v>0.903115712779216</v>
       </c>
       <c r="D56">
-        <v>0.9976130746791589</v>
+        <v>0.8013559850374066</v>
       </c>
       <c r="E56">
-        <v>0.9013001213187495</v>
+        <v>0.9013001213187493</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2199,13 +2199,13 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.8143703241895262</v>
+        <v>1.017505938915977</v>
       </c>
       <c r="C57">
         <v>0.92347809414246</v>
       </c>
       <c r="D57">
-        <v>1.017505938915977</v>
+        <v>0.8143703241895262</v>
       </c>
       <c r="E57">
         <v>0.9197081128476057</v>
@@ -2222,13 +2222,13 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.8287874064837905</v>
+        <v>1.029999165777963</v>
       </c>
       <c r="C58">
         <v>0.930955804812578</v>
       </c>
       <c r="D58">
-        <v>1.029999165777963</v>
+        <v>0.8287874064837905</v>
       </c>
       <c r="E58">
         <v>0.9301745454717275</v>
@@ -2245,13 +2245,13 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.8463996259351622</v>
+        <v>1.045284792437646</v>
       </c>
       <c r="C59">
         <v>0.9403700508100853</v>
       </c>
       <c r="D59">
-        <v>1.045284792437646</v>
+        <v>0.8463996259351622</v>
       </c>
       <c r="E59">
         <v>0.9431061299982446</v>
@@ -2268,13 +2268,13 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.8123441396508729</v>
+        <v>1.023160511491466</v>
       </c>
       <c r="C60">
         <v>0.9306682005560351</v>
       </c>
       <c r="D60">
-        <v>1.023160511491466</v>
+        <v>0.8123441396508729</v>
       </c>
       <c r="E60">
         <v>0.9242102630636023</v>
@@ -2291,13 +2291,13 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.8189682044887781</v>
+        <v>1.041828415749427</v>
       </c>
       <c r="C61">
         <v>0.9459303997699168</v>
       </c>
       <c r="D61">
-        <v>1.041828415749427</v>
+        <v>0.8189682044887781</v>
       </c>
       <c r="E61">
         <v>0.9381643549445098</v>
@@ -2314,16 +2314,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>0.8223192019950125</v>
+        <v>1.048781214559733</v>
       </c>
       <c r="C62">
         <v>0.9727926373310326</v>
       </c>
       <c r="D62">
-        <v>1.048781214559733</v>
+        <v>0.8223192019950125</v>
       </c>
       <c r="E62">
-        <v>0.9541714228042029</v>
+        <v>0.9541714228042028</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2337,13 +2337,13 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>0.8305018703241897</v>
+        <v>1.043656648275379</v>
       </c>
       <c r="C63">
         <v>0.964260377720257</v>
       </c>
       <c r="D63">
-        <v>1.043656648275379</v>
+        <v>0.8305018703241897</v>
       </c>
       <c r="E63">
         <v>0.9506698185100206</v>
@@ -2360,13 +2360,13 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>0.8252805486284289</v>
+        <v>1.04392928573243</v>
       </c>
       <c r="C64">
         <v>0.9411369954942</v>
       </c>
       <c r="D64">
-        <v>1.04392928573243</v>
+        <v>0.8252805486284289</v>
       </c>
       <c r="E64">
         <v>0.9378709563373147</v>
@@ -2383,13 +2383,13 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>0.823176433915212</v>
+        <v>1.049096835503861</v>
       </c>
       <c r="C65">
         <v>0.9526028185217142</v>
       </c>
       <c r="D65">
-        <v>1.049096835503861</v>
+        <v>0.823176433915212</v>
       </c>
       <c r="E65">
         <v>0.9443697266156253</v>
@@ -2406,13 +2406,13 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.8278522443890275</v>
+        <v>1.028702859688156</v>
       </c>
       <c r="C66">
         <v>0.9340235835490367</v>
       </c>
       <c r="D66">
-        <v>1.028702859688156</v>
+        <v>0.8278522443890275</v>
       </c>
       <c r="E66">
         <v>0.9311505677938143</v>
@@ -2429,16 +2429,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.8005766832917707</v>
+        <v>0.9884542143273263</v>
       </c>
       <c r="C67">
         <v>0.9243600805291918</v>
       </c>
       <c r="D67">
-        <v>0.9884542143273263</v>
+        <v>0.8005766832917707</v>
       </c>
       <c r="E67">
-        <v>0.9094377646693701</v>
+        <v>0.9094377646693702</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2452,16 +2452,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.7983167082294265</v>
+        <v>0.9941718740767979</v>
       </c>
       <c r="C68">
         <v>0.9329306873741733</v>
       </c>
       <c r="D68">
-        <v>0.9941718740767979</v>
+        <v>0.7983167082294265</v>
       </c>
       <c r="E68">
-        <v>0.9145874892636426</v>
+        <v>0.9145874892636428</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2475,16 +2475,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.810240024937656</v>
+        <v>1.00758346234163</v>
       </c>
       <c r="C69">
         <v>0.9379733486722271</v>
       </c>
       <c r="D69">
-        <v>1.00758346234163</v>
+        <v>0.810240024937656</v>
       </c>
       <c r="E69">
-        <v>0.9234425461559351</v>
+        <v>0.923442546155935</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2498,13 +2498,13 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.8079800498753117</v>
+        <v>1.008155989434298</v>
       </c>
       <c r="C70">
         <v>0.9307257214073436</v>
       </c>
       <c r="D70">
-        <v>1.008155989434298</v>
+        <v>0.8079800498753117</v>
       </c>
       <c r="E70">
         <v>0.9193968705310742</v>
@@ -2521,13 +2521,13 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.8092269326683292</v>
+        <v>1.00600246583634</v>
       </c>
       <c r="C71">
         <v>0.9368037580289523</v>
       </c>
       <c r="D71">
-        <v>1.00600246583634</v>
+        <v>0.8092269326683292</v>
       </c>
       <c r="E71">
         <v>0.9222092286406436</v>
@@ -2544,13 +2544,13 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.820682668329177</v>
+        <v>1.037399867329547</v>
       </c>
       <c r="C72">
         <v>0.9533122423545204</v>
       </c>
       <c r="D72">
-        <v>1.037399867329547</v>
+        <v>0.820682668329177</v>
       </c>
       <c r="E72">
         <v>0.9411767550919412</v>
@@ -2567,16 +2567,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.8162406483790525</v>
+        <v>1.045566012711545</v>
       </c>
       <c r="C73">
         <v>0.9631866551624966</v>
       </c>
       <c r="D73">
-        <v>1.045566012711545</v>
+        <v>0.8162406483790525</v>
       </c>
       <c r="E73">
-        <v>0.9470449928538976</v>
+        <v>0.9470449928538978</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2590,13 +2590,13 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.8091490024937656</v>
+        <v>1.044965215532113</v>
       </c>
       <c r="C74">
         <v>0.9699165947656027</v>
       </c>
       <c r="D74">
-        <v>1.044965215532113</v>
+        <v>0.8091490024937656</v>
       </c>
       <c r="E74">
         <v>0.9484868518892711</v>
@@ -2613,13 +2613,13 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.8092269326683292</v>
+        <v>1.04118637015371</v>
       </c>
       <c r="C75">
         <v>0.9683060109289618</v>
       </c>
       <c r="D75">
-        <v>1.04118637015371</v>
+        <v>0.8092269326683292</v>
       </c>
       <c r="E75">
         <v>0.9467563311699907</v>
@@ -2636,16 +2636,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>0.8061097256857855</v>
+        <v>1.053591941239306</v>
       </c>
       <c r="C76">
         <v>0.9826478765219059</v>
       </c>
       <c r="D76">
-        <v>1.053591941239306</v>
+        <v>0.8061097256857855</v>
       </c>
       <c r="E76">
-        <v>0.9562493549922259</v>
+        <v>0.9562493549922257</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2659,16 +2659,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.8057200748129677</v>
+        <v>1.058537054935256</v>
       </c>
       <c r="C77">
         <v>0.9628990509059535</v>
       </c>
       <c r="D77">
-        <v>1.058537054935256</v>
+        <v>0.8057200748129677</v>
       </c>
       <c r="E77">
-        <v>0.9475138078900327</v>
+        <v>0.9475138078900328</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2682,13 +2682,13 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>0.7945760598503742</v>
+        <v>1.052217302486828</v>
       </c>
       <c r="C78">
         <v>0.9706835394497172</v>
       </c>
       <c r="D78">
-        <v>1.052217302486828</v>
+        <v>0.7945760598503742</v>
       </c>
       <c r="E78">
         <v>0.9470401103091592</v>
@@ -2705,13 +2705,13 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>0.8017456359102244</v>
+        <v>1.062599341478172</v>
       </c>
       <c r="C79">
         <v>0.9790432365065671</v>
       </c>
       <c r="D79">
-        <v>1.062599341478172</v>
+        <v>0.8017456359102244</v>
       </c>
       <c r="E79">
         <v>0.9556078626003827</v>
@@ -2728,16 +2728,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>0.801278054862843</v>
+        <v>1.05600165382321</v>
       </c>
       <c r="C80">
         <v>0.995398331895312</v>
       </c>
       <c r="D80">
-        <v>1.05600165382321</v>
+        <v>0.801278054862843</v>
       </c>
       <c r="E80">
-        <v>0.9620190931191692</v>
+        <v>0.9620190931191693</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2751,13 +2751,13 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>0.7742362842892769</v>
+        <v>1.050084530335538</v>
       </c>
       <c r="C81">
         <v>0.9877288850541657</v>
       </c>
       <c r="D81">
-        <v>1.050084530335538</v>
+        <v>0.7742362842892769</v>
       </c>
       <c r="E81">
         <v>0.9499446461832866</v>
@@ -2774,13 +2774,13 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>0.7846009975062345</v>
+        <v>1.061676769636872</v>
       </c>
       <c r="C82">
         <v>0.9597162304668776</v>
       </c>
       <c r="D82">
-        <v>1.061676769636872</v>
+        <v>0.7846009975062345</v>
       </c>
       <c r="E82">
         <v>0.9414275570192154</v>
@@ -2797,13 +2797,13 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.7733011221945137</v>
+        <v>1.07032218784006</v>
       </c>
       <c r="C83">
         <v>0.9463522193461796</v>
       </c>
       <c r="D83">
-        <v>1.07032218784006</v>
+        <v>0.7733011221945137</v>
       </c>
       <c r="E83">
         <v>0.9340819371817332</v>
@@ -2820,16 +2820,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.7623129675810474</v>
+        <v>1.059070970919242</v>
       </c>
       <c r="C84">
         <v>0.9288467069312627</v>
       </c>
       <c r="D84">
-        <v>1.059070970919242</v>
+        <v>0.7623129675810474</v>
       </c>
       <c r="E84">
-        <v>0.9197693380907037</v>
+        <v>0.9197693380907036</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2843,16 +2843,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.7819513715710724</v>
+        <v>1.034243889231045</v>
       </c>
       <c r="C85">
         <v>0.9523727351164799</v>
       </c>
       <c r="D85">
-        <v>1.034243889231045</v>
+        <v>0.7819513715710724</v>
       </c>
       <c r="E85">
-        <v>0.9302351827587694</v>
+        <v>0.9302351827587693</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2866,16 +2866,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.7791458852867831</v>
+        <v>1.042232756646698</v>
       </c>
       <c r="C86">
         <v>0.9638002109097882</v>
       </c>
       <c r="D86">
-        <v>1.042232756646698</v>
+        <v>0.7791458852867831</v>
       </c>
       <c r="E86">
-        <v>0.9372447659382642</v>
+        <v>0.9372447659382643</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2889,13 +2889,13 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.7760286783042395</v>
+        <v>1.01493366176604</v>
       </c>
       <c r="C87">
         <v>0.9615952449429586</v>
       </c>
       <c r="D87">
-        <v>1.01493366176604</v>
+        <v>0.7760286783042395</v>
       </c>
       <c r="E87">
         <v>0.9285382074890492</v>
@@ -2912,13 +2912,13 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.8062655860349127</v>
+        <v>1.029181924300851</v>
       </c>
       <c r="C88">
         <v>0.9779311667146007</v>
       </c>
       <c r="D88">
-        <v>1.029181924300851</v>
+        <v>0.8062655860349127</v>
       </c>
       <c r="E88">
         <v>0.9478274609412414</v>
@@ -2935,16 +2935,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>0.8110193266832918</v>
+        <v>1.056542139941927</v>
       </c>
       <c r="C89">
         <v>0.998868756590931</v>
       </c>
       <c r="D89">
-        <v>1.056542139941927</v>
+        <v>0.8110193266832918</v>
       </c>
       <c r="E89">
-        <v>0.96632474495177</v>
+        <v>0.9663247449517701</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2958,16 +2958,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>0.8293329177057358</v>
+        <v>1.062286982467133</v>
       </c>
       <c r="C90">
         <v>0.9968171795609243</v>
       </c>
       <c r="D90">
-        <v>1.062286982467133</v>
+        <v>0.8293329177057358</v>
       </c>
       <c r="E90">
-        <v>0.9713135648236793</v>
+        <v>0.9713135648236794</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -2981,13 +2981,13 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>0.8308915211970076</v>
+        <v>1.063405200890892</v>
       </c>
       <c r="C91">
         <v>0.9916211293260475</v>
       </c>
       <c r="D91">
-        <v>1.063405200890892</v>
+        <v>0.8308915211970076</v>
       </c>
       <c r="E91">
         <v>0.9693847451849986</v>
@@ -3004,16 +3004,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>0.8322942643391522</v>
+        <v>1.046147145755339</v>
       </c>
       <c r="C92">
         <v>1.00274182724571</v>
       </c>
       <c r="D92">
-        <v>1.046147145755339</v>
+        <v>0.8322942643391522</v>
       </c>
       <c r="E92">
-        <v>0.970981266146478</v>
+        <v>0.9709812661464778</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3027,16 +3027,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>0.8153054862842893</v>
+        <v>1.037479217900415</v>
       </c>
       <c r="C93">
         <v>0.9942095676349344</v>
       </c>
       <c r="D93">
-        <v>1.037479217900415</v>
+        <v>0.8153054862842893</v>
       </c>
       <c r="E93">
-        <v>0.9603009598636434</v>
+        <v>0.9603009598636433</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3050,13 +3050,13 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>0.8232543640897756</v>
+        <v>1.043417971937289</v>
       </c>
       <c r="C94">
         <v>1.001994056178698</v>
       </c>
       <c r="D94">
-        <v>1.043417971937289</v>
+        <v>0.8232543640897756</v>
       </c>
       <c r="E94">
         <v>0.9676651120961153</v>
@@ -3073,16 +3073,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>0.8514650872817956</v>
+        <v>1.069950512542225</v>
       </c>
       <c r="C95">
         <v>1.034550858019365</v>
       </c>
       <c r="D95">
-        <v>1.069950512542225</v>
+        <v>0.8514650872817956</v>
       </c>
       <c r="E95">
-        <v>0.9976293289656879</v>
+        <v>0.997629328965688</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3096,13 +3096,13 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>0.8516209476309228</v>
+        <v>1.083262947294888</v>
       </c>
       <c r="C96">
         <v>1.029278113316077</v>
       </c>
       <c r="D96">
-        <v>1.083262947294888</v>
+        <v>0.8516209476309228</v>
       </c>
       <c r="E96">
         <v>0.9983600303894913</v>
@@ -3119,13 +3119,13 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>0.8588684538653368</v>
+        <v>1.097915064907148</v>
       </c>
       <c r="C97">
         <v>1.030524398427763</v>
       </c>
       <c r="D97">
-        <v>1.097915064907148</v>
+        <v>0.8588684538653368</v>
       </c>
       <c r="E97">
         <v>1.004458078907003</v>
@@ -3142,13 +3142,13 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>0.8636221945137158</v>
+        <v>1.09467263401467</v>
       </c>
       <c r="C98">
         <v>1.02354520180232</v>
       </c>
       <c r="D98">
-        <v>1.09467263401467</v>
+        <v>0.8636221945137158</v>
       </c>
       <c r="E98">
         <v>1.001346308033257</v>
@@ -3165,13 +3165,13 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>0.8893391521197008</v>
+        <v>1.105601775528016</v>
       </c>
       <c r="C99">
         <v>1.024292972869332</v>
       </c>
       <c r="D99">
-        <v>1.105601775528016</v>
+        <v>0.8893391521197008</v>
       </c>
       <c r="E99">
         <v>1.010881718346595</v>
@@ -3188,13 +3188,13 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>0.883806109725686</v>
+        <v>1.138931189914788</v>
       </c>
       <c r="C100">
         <v>1.031118780557952</v>
       </c>
       <c r="D100">
-        <v>1.138931189914788</v>
+        <v>0.883806109725686</v>
       </c>
       <c r="E100">
         <v>1.021243715189095</v>
@@ -3211,13 +3211,13 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>0.8630766832917706</v>
+        <v>1.139265433952078</v>
       </c>
       <c r="C101">
         <v>1.022203048605119</v>
       </c>
       <c r="D101">
-        <v>1.139265433952078</v>
+        <v>0.8630766832917706</v>
       </c>
       <c r="E101">
         <v>1.011687053613522</v>
@@ -3234,13 +3234,13 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>0.8511533665835412</v>
+        <v>1.123094689845917</v>
       </c>
       <c r="C102">
         <v>1.024235452018023</v>
       </c>
       <c r="D102">
-        <v>1.123094689845917</v>
+        <v>0.8511533665835412</v>
       </c>
       <c r="E102">
         <v>1.005679740116376</v>
@@ -3257,13 +3257,13 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>0.8606608478802994</v>
+        <v>1.133713855178777</v>
       </c>
       <c r="C103">
         <v>1.033649698015531</v>
       </c>
       <c r="D103">
-        <v>1.133713855178777</v>
+        <v>0.8606608478802994</v>
       </c>
       <c r="E103">
         <v>1.015418524772534</v>
@@ -3280,13 +3280,13 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>0.8759351620947633</v>
+        <v>1.137965287572252</v>
       </c>
       <c r="C104">
         <v>1.02902885629374</v>
       </c>
       <c r="D104">
-        <v>1.137965287572252</v>
+        <v>0.8759351620947633</v>
       </c>
       <c r="E104">
         <v>1.017989540563624</v>
@@ -3303,16 +3303,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>0.8875467581047383</v>
+        <v>1.118663666058374</v>
       </c>
       <c r="C105">
         <v>0.9966637906241014</v>
       </c>
       <c r="D105">
-        <v>1.118663666058374</v>
+        <v>0.8875467581047383</v>
       </c>
       <c r="E105">
-        <v>0.9998845013528287</v>
+        <v>0.9998845013528288</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3326,16 +3326,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>0.8935473815461348</v>
+        <v>1.134439161038213</v>
       </c>
       <c r="C106">
         <v>1.001879014476081</v>
       </c>
       <c r="D106">
-        <v>1.134439161038213</v>
+        <v>0.8935473815461348</v>
       </c>
       <c r="E106">
-        <v>1.007936142884128</v>
+        <v>1.007936142884127</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3349,13 +3349,13 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>0.8955735660847881</v>
+        <v>1.146010625758602</v>
       </c>
       <c r="C107">
         <v>1.008052919183204</v>
       </c>
       <c r="D107">
-        <v>1.146010625758602</v>
+        <v>0.8955735660847881</v>
       </c>
       <c r="E107">
         <v>1.01442250755245</v>
@@ -3372,16 +3372,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>0.8650249376558605</v>
+        <v>1.136699426191269</v>
       </c>
       <c r="C108">
         <v>0.9877480586712685</v>
       </c>
       <c r="D108">
-        <v>1.136699426191269</v>
+        <v>0.8650249376558605</v>
       </c>
       <c r="E108">
-        <v>0.9943051202974166</v>
+        <v>0.9943051202974165</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3395,13 +3395,13 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>0.8675966334164589</v>
+        <v>1.123101306249202</v>
       </c>
       <c r="C109">
         <v>0.9800977854472247</v>
       </c>
       <c r="D109">
-        <v>1.123101306249202</v>
+        <v>0.8675966334164589</v>
       </c>
       <c r="E109">
         <v>0.9877233776400276</v>
@@ -3418,16 +3418,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>0.8565305486284289</v>
+        <v>1.090305136952376</v>
       </c>
       <c r="C110">
         <v>0.972313296903461</v>
       </c>
       <c r="D110">
-        <v>1.090305136952376</v>
+        <v>0.8565305486284289</v>
       </c>
       <c r="E110">
-        <v>0.9728655698469318</v>
+        <v>0.972865569846932</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3441,13 +3441,13 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>0.8651028678304241</v>
+        <v>1.092001712306663</v>
       </c>
       <c r="C111">
         <v>0.9761288467069313</v>
       </c>
       <c r="D111">
-        <v>1.092001712306663</v>
+        <v>0.8651028678304241</v>
       </c>
       <c r="E111">
         <v>0.9773405683877374</v>
@@ -3464,13 +3464,13 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>0.8840399002493767</v>
+        <v>1.088202832644187</v>
       </c>
       <c r="C112">
         <v>0.9630524398427764</v>
       </c>
       <c r="D112">
-        <v>1.088202832644187</v>
+        <v>0.8840399002493767</v>
       </c>
       <c r="E112">
         <v>0.9745869031447791</v>
@@ -3487,13 +3487,13 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>0.9191084788029926</v>
+        <v>1.09055551923474</v>
       </c>
       <c r="C113">
         <v>0.9528137283098458</v>
       </c>
       <c r="D113">
-        <v>1.09055551923474</v>
+        <v>0.9191084788029926</v>
       </c>
       <c r="E113">
         <v>0.9788228636643561</v>
@@ -3510,13 +3510,13 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>0.912562344139651</v>
+        <v>1.101601974667874</v>
       </c>
       <c r="C114">
         <v>0.9582782091841626</v>
       </c>
       <c r="D114">
-        <v>1.101601974667874</v>
+        <v>0.912562344139651</v>
       </c>
       <c r="E114">
         <v>0.9826801842939625</v>
@@ -3533,13 +3533,13 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>0.9116271820448878</v>
+        <v>1.1160717247728</v>
       </c>
       <c r="C115">
         <v>0.9451442814686992</v>
       </c>
       <c r="D115">
-        <v>1.1160717247728</v>
+        <v>0.9116271820448878</v>
       </c>
       <c r="E115">
         <v>0.9794968674387714</v>
@@ -3556,13 +3556,13 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>0.8972880299251871</v>
+        <v>1.118823361974031</v>
       </c>
       <c r="C116">
         <v>0.9467932125395456</v>
       </c>
       <c r="D116">
-        <v>1.118823361974031</v>
+        <v>0.8972880299251871</v>
       </c>
       <c r="E116">
         <v>0.9774244542445774</v>
@@ -3579,13 +3579,13 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>0.8997817955112221</v>
+        <v>1.151759192902441</v>
       </c>
       <c r="C117">
         <v>0.9647397181478287</v>
       </c>
       <c r="D117">
-        <v>1.151759192902441</v>
+        <v>0.8997817955112221</v>
       </c>
       <c r="E117">
         <v>0.99525510617733</v>
@@ -3602,22 +3602,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.8997817955112221</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>0.9647397181478287</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="D118">
-        <v>1.158596065849592</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="E118">
-        <v>0.9969643244141178</v>
+        <v>1.005862378292947</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="D119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="E119">
+        <v>0.9933433746988316</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="D120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="E120">
+        <v>0.9988453193046185</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="D121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="E121">
+        <v>0.9872386733440389</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="D122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="E122">
+        <v>0.9606906236432904</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="D123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="E123">
+        <v>0.9639881587554784</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="D124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="E124">
+        <v>0.9707154082866829</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="D125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="E125">
+        <v>0.9821589707292134</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="D126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="E126">
+        <v>0.9815824832652901</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="D127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="E127">
+        <v>0.9775538440538227</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3729,18 +3936,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3772,131 +3979,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>67.98</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>3.81</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>1.45</v>
-      </c>
-      <c r="M2">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>41.16</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K3">
-        <v>9.26</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L3">
-        <v>13.51</v>
-      </c>
-      <c r="M3">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>24.53</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K4">
-        <v>4.14</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L4">
-        <v>11.05</v>
-      </c>
-      <c r="M4">
-        <v>13.69</v>
+        <v>27.0909</v>
       </c>
     </row>
   </sheetData>
@@ -3914,19 +4109,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3934,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3954,19 +4149,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3974,19 +4169,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3994,19 +4189,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4014,19 +4209,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4034,19 +4229,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4054,19 +4249,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4074,19 +4269,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4094,19 +4289,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4114,19 +4309,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4134,19 +4329,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4154,19 +4349,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4174,19 +4369,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4194,19 +4389,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4214,19 +4409,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4234,19 +4429,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4254,19 +4449,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4274,19 +4469,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
         <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4294,19 +4489,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4314,19 +4509,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4344,10 +4539,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4355,43 +4550,43 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4399,10 +4594,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
